--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="181" windowWidth="20733" windowHeight="9537"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -450,13 +450,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,17 +546,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -807,24 +856,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.86328125" style="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -833,7 +882,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -879,39 +928,41 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="20">
+      <c r="F4" s="22">
         <v>42111.642361111109</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="22">
         <v>42111.652777777781</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <v>42111.659722222219</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="18">
+        <v>42112.5</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
@@ -919,17 +970,17 @@
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -945,17 +996,19 @@
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="9"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -971,17 +1024,19 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="L7" s="9"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -997,17 +1052,19 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1023,17 +1080,19 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="9"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="14"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1049,17 +1108,19 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1075,17 +1136,19 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="9"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1101,17 +1164,19 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1192,19 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="9"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="9"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1153,17 +1220,19 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K14" s="14"/>
       <c r="L14" s="13"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -1179,17 +1248,19 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="9"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
@@ -1205,17 +1276,19 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1231,17 +1304,19 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1257,17 +1332,19 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="9"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1283,17 +1360,19 @@
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1309,17 +1388,19 @@
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="9"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1335,17 +1416,19 @@
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="9"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1361,17 +1444,19 @@
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="9"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1387,17 +1472,19 @@
       <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="9"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -1413,17 +1500,19 @@
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="9"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -1439,17 +1528,19 @@
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="9"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1465,17 +1556,19 @@
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="9"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>79</v>
       </c>
@@ -1491,17 +1584,19 @@
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="9"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
@@ -1517,17 +1612,19 @@
       <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="9"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
@@ -1543,17 +1640,19 @@
       <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="9"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>82</v>
       </c>
@@ -1569,17 +1668,19 @@
       <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="9"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>83</v>
       </c>
@@ -1595,17 +1696,19 @@
       <c r="E31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="9"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>84</v>
       </c>
@@ -1621,17 +1724,19 @@
       <c r="E32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="9"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
@@ -1647,17 +1752,19 @@
       <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="9"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
@@ -1673,17 +1780,19 @@
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="9"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>87</v>
       </c>
@@ -1699,17 +1808,19 @@
       <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="9"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>88</v>
       </c>
@@ -1725,17 +1836,19 @@
       <c r="E36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="9"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>89</v>
       </c>
@@ -1751,17 +1864,19 @@
       <c r="E37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="9"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="21"/>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
@@ -1777,17 +1892,19 @@
       <c r="E38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="9"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="20"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>91</v>
       </c>
@@ -1803,17 +1920,19 @@
       <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="9"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
@@ -1829,17 +1948,19 @@
       <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="9"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="20"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
@@ -1855,26 +1976,28 @@
       <c r="E41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="9"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="25">
+        <v>42115.444444444445</v>
+      </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="20"/>
+      <c r="N41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I4:I41"/>
+    <mergeCell ref="M4:M41"/>
+    <mergeCell ref="N4:N41"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F4:F41"/>
     <mergeCell ref="G4:G41"/>
     <mergeCell ref="H4:H41"/>
-    <mergeCell ref="I4:I41"/>
-    <mergeCell ref="M4:M41"/>
-    <mergeCell ref="N4:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="9540"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="23800" windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -309,6 +304,30 @@
   </si>
   <si>
     <t>REC360</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>OK / Pendiente cambio ficha de profesor y alumno</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK / Es la misma de la Evaluación FINAL</t>
+  </si>
+  <si>
+    <t>OK / Video no carga</t>
+  </si>
+  <si>
+    <t>OK / Cambio video audio latino</t>
   </si>
 </sst>
 </file>
@@ -427,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -487,13 +506,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,12 +581,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +588,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,9 +602,6 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -567,13 +611,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -844,7 +907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,37 +915,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -920,1079 +984,1320 @@
         <v>36</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="22">
+      <c r="B4" s="21"/>
+      <c r="C4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="20">
         <v>42111.642361111109</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>42111.652777777781</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>42111.659722222219</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>42112.5</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="3"/>
+      <c r="J4" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K4" s="16">
+        <v>42115.569444444445</v>
+      </c>
+      <c r="L4" s="16">
+        <v>42115.694444444445</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="15">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16">
+        <v>42137.444444444445</v>
+      </c>
+      <c r="K5" s="16">
+        <v>42137.569444444445</v>
+      </c>
+      <c r="L5" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K8" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L8" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K9" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L9" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K10" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L10" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K11" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L11" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K12" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L12" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K14" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L14" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K16" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L16" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K17" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L17" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K18" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L18" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K19" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L19" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K20" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L20" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K21" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L21" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K22" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L22" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K23" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L23" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K24" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L24" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K25" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L25" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K26" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L26" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="20"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K27" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L27" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K29" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L29" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="23"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" s="23"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K32" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L32" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K34" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L34" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K35" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L35" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K36" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L36" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K37" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L37" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="23"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K38" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L38" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="20"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K39" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L39" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="23"/>
+      <c r="O39" s="20"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K40" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L40" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="20"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="25">
-        <v>42115.444444444445</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="16">
+        <v>42115.444444444445</v>
+      </c>
+      <c r="K41" s="16">
+        <v>42150.944444444445</v>
+      </c>
+      <c r="L41" s="16">
+        <v>42151.057638888888</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="23"/>
+      <c r="O41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I4:I41"/>
-    <mergeCell ref="M4:M41"/>
     <mergeCell ref="N4:N41"/>
+    <mergeCell ref="O4:O41"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F4:F41"/>
@@ -2000,7 +2305,7 @@
     <mergeCell ref="H4:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_02_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="101">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -309,25 +309,22 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
-  </si>
-  <si>
-    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
-  </si>
-  <si>
-    <t>OK / Pendiente cambio ficha de profesor y alumno</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>OK / Es la misma de la Evaluación FINAL</t>
   </si>
   <si>
-    <t>OK / Video no carga</t>
-  </si>
-  <si>
     <t>OK / Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>Video no carga</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -506,21 +503,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,8 +526,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -593,6 +611,7 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -611,12 +630,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="55">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -627,6 +642,23 @@
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -637,6 +669,23 @@
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,8 +967,8 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -996,25 +1045,25 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="20">
+      <c r="F4" s="21">
         <v>42111.642361111109</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>42111.652777777781</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>42111.659722222219</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="18">
         <v>42112.5</v>
       </c>
       <c r="J4" s="16">
@@ -1027,18 +1076,20 @@
         <v>42115.694444444445</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="N4" s="18">
+        <v>42152.972222222219</v>
+      </c>
+      <c r="O4" s="21"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1046,10 +1097,10 @@
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="16">
         <v>42137.444444444445</v>
       </c>
@@ -1060,10 +1111,10 @@
         <v>42151.057638888888</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
@@ -1081,20 +1132,24 @@
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="20"/>
+      <c r="K6" s="16">
+        <v>42152.737500000003</v>
+      </c>
+      <c r="L6" s="16">
+        <v>42152.737500000003</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
@@ -1112,20 +1167,24 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="20"/>
+      <c r="K7" s="16">
+        <v>42152.765277777777</v>
+      </c>
+      <c r="L7" s="16">
+        <v>42152.765277777777</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="10" t="s">
@@ -1143,10 +1202,10 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1156,11 +1215,11 @@
       <c r="L8" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
@@ -1178,10 +1237,10 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1191,11 +1250,11 @@
       <c r="L9" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="20"/>
+      <c r="M9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
@@ -1213,10 +1272,10 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1226,11 +1285,11 @@
       <c r="L10" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="20"/>
+      <c r="M10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
@@ -1248,10 +1307,10 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1261,11 +1320,11 @@
       <c r="L11" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="20"/>
+      <c r="M11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="10" t="s">
@@ -1283,10 +1342,10 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1296,11 +1355,11 @@
       <c r="L12" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="20"/>
+      <c r="M12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="10" t="s">
@@ -1318,20 +1377,24 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="20"/>
+      <c r="K13" s="16">
+        <v>42152.784722222219</v>
+      </c>
+      <c r="L13" s="16">
+        <v>42152.784722222219</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="10" t="s">
@@ -1349,10 +1412,10 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1362,11 +1425,11 @@
       <c r="L14" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="20"/>
+      <c r="M14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="10" t="s">
@@ -1384,20 +1447,24 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="20"/>
+      <c r="K15" s="16">
+        <v>42152.791666666664</v>
+      </c>
+      <c r="L15" s="16">
+        <v>42152.791666666664</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="10" t="s">
@@ -1415,10 +1482,10 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1428,11 +1495,11 @@
       <c r="L16" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="10" t="s">
@@ -1450,10 +1517,10 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1463,11 +1530,11 @@
       <c r="L17" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="20"/>
+      <c r="M17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="10" t="s">
@@ -1485,10 +1552,10 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1498,11 +1565,11 @@
       <c r="L18" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="20"/>
+      <c r="M18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="10" t="s">
@@ -1520,10 +1587,10 @@
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1533,11 +1600,11 @@
       <c r="L19" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="20"/>
+      <c r="M19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="10" t="s">
@@ -1555,10 +1622,10 @@
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1568,11 +1635,11 @@
       <c r="L20" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M20" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="20"/>
+      <c r="M20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="10" t="s">
@@ -1590,10 +1657,10 @@
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1603,11 +1670,11 @@
       <c r="L21" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="20"/>
+      <c r="M21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10" t="s">
@@ -1625,10 +1692,10 @@
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1638,11 +1705,11 @@
       <c r="L22" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M22" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="20"/>
+      <c r="M22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="19"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="10" t="s">
@@ -1660,10 +1727,10 @@
       <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1673,11 +1740,11 @@
       <c r="L23" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M23" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="20"/>
+      <c r="M23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="19"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="10" t="s">
@@ -1695,10 +1762,10 @@
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1708,11 +1775,11 @@
       <c r="L24" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M24" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="20"/>
+      <c r="M24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="10" t="s">
@@ -1730,10 +1797,10 @@
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1743,11 +1810,11 @@
       <c r="L25" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M25" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="20"/>
+      <c r="M25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="10" t="s">
@@ -1765,10 +1832,10 @@
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1778,11 +1845,11 @@
       <c r="L26" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M26" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="20"/>
+      <c r="M26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
@@ -1800,10 +1867,10 @@
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1813,11 +1880,11 @@
       <c r="L27" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M27" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="20"/>
+      <c r="M27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="10" t="s">
@@ -1835,20 +1902,24 @@
       <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="20"/>
+      <c r="K28" s="16">
+        <v>42152.868055555555</v>
+      </c>
+      <c r="L28" s="16">
+        <v>42152.868055555555</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="10" t="s">
@@ -1866,10 +1937,10 @@
       <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1879,11 +1950,11 @@
       <c r="L29" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="20"/>
+      <c r="M29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="10" t="s">
@@ -1901,20 +1972,24 @@
       <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="20"/>
+      <c r="K30" s="16">
+        <v>42152.915277777778</v>
+      </c>
+      <c r="L30" s="16">
+        <v>42152.915277777778</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="10" t="s">
@@ -1932,20 +2007,24 @@
       <c r="E31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="20"/>
+      <c r="K31" s="16">
+        <v>42152.936111111114</v>
+      </c>
+      <c r="L31" s="16">
+        <v>42152.936111111114</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="10" t="s">
@@ -1963,10 +2042,10 @@
       <c r="E32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -1976,11 +2055,11 @@
       <c r="L32" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="20"/>
+      <c r="M32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="10" t="s">
@@ -1998,20 +2077,24 @@
       <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="16">
         <v>42115.444444444445</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="20"/>
+      <c r="K33" s="16">
+        <v>42152.947222222225</v>
+      </c>
+      <c r="L33" s="16">
+        <v>42152.947222222225</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="10" t="s">
@@ -2029,10 +2112,10 @@
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="18"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2042,11 +2125,11 @@
       <c r="L34" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M34" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="20"/>
+      <c r="M34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="10" t="s">
@@ -2064,10 +2147,10 @@
       <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2077,11 +2160,11 @@
       <c r="L35" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M35" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="20"/>
+      <c r="M35" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="10" t="s">
@@ -2099,10 +2182,10 @@
       <c r="E36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2112,11 +2195,11 @@
       <c r="L36" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M36" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="20"/>
+      <c r="M36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N36" s="19"/>
+      <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="10" t="s">
@@ -2134,10 +2217,10 @@
       <c r="E37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2147,11 +2230,11 @@
       <c r="L37" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M37" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="20"/>
+      <c r="M37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="10" t="s">
@@ -2169,10 +2252,10 @@
       <c r="E38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="18"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2182,11 +2265,11 @@
       <c r="L38" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M38" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="20"/>
+      <c r="M38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="10" t="s">
@@ -2204,10 +2287,10 @@
       <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="18"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2217,11 +2300,11 @@
       <c r="L39" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M39" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="20"/>
+      <c r="M39" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N39" s="19"/>
+      <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="10" t="s">
@@ -2239,10 +2322,10 @@
       <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2252,11 +2335,11 @@
       <c r="L40" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M40" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="20"/>
+      <c r="M40" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="19"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="10" t="s">
@@ -2274,10 +2357,10 @@
       <c r="E41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="19"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="16">
         <v>42115.444444444445</v>
       </c>
@@ -2287,11 +2370,11 @@
       <c r="L41" s="16">
         <v>42151.057638888888</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="20"/>
+      <c r="M41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="20"/>
+      <c r="O41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
